--- a/data/trans_orig/Q5410-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4309</v>
+        <v>4264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006499726235948793</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03340595668850411</v>
+        <v>0.03305987595311289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9048</v>
+        <v>8511</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0118988780350638</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003293686202125124</v>
+        <v>0.003278465555955534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03324046234198074</v>
+        <v>0.03126521983756076</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>4077</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1137</v>
+        <v>902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10018</v>
+        <v>10306</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01016299752546493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002834460607798257</v>
+        <v>0.0022481845352298</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02497070280294036</v>
+        <v>0.02568700812742995</v>
       </c>
     </row>
     <row r="5">
@@ -818,16 +818,16 @@
         <v>803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7934</v>
+        <v>6918</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01994869712467826</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006225323300444967</v>
+        <v>0.006224342106997889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06150659426859476</v>
+        <v>0.05362949884756953</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -836,19 +836,19 @@
         <v>10976</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5588</v>
+        <v>4791</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19677</v>
+        <v>19936</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04032137119785514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02052652860108599</v>
+        <v>0.01760180207075398</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07228408934030928</v>
+        <v>0.07323803740435825</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -857,19 +857,19 @@
         <v>13549</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6804</v>
+        <v>7689</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22016</v>
+        <v>23133</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03377135571989901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01695853784322973</v>
+        <v>0.01916607546054722</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05487463525797426</v>
+        <v>0.05765887481790539</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>125579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120427</v>
+        <v>120955</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>128140</v>
+        <v>128125</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.973551576639373</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9336068398998595</v>
+        <v>0.9376972529933614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9934046444036193</v>
+        <v>0.9932878732727898</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>253</v>
@@ -907,19 +907,19 @@
         <v>257997</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>248512</v>
+        <v>248455</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>264143</v>
+        <v>264405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9477797507670811</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9129365911912725</v>
+        <v>0.9127275348238669</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9703562615071699</v>
+        <v>0.9713217367947506</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>388</v>
@@ -928,19 +928,19 @@
         <v>383576</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>373283</v>
+        <v>373515</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>390981</v>
+        <v>390854</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.956065646754636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9304089092897625</v>
+        <v>0.9309863486138646</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9745215985878346</v>
+        <v>0.974206195179331</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6122</v>
+        <v>5508</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01067776576035392</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03766385091299772</v>
+        <v>0.03388091171810632</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1100,19 +1100,19 @@
         <v>3408</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9100</v>
+        <v>9117</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01673843009824945</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0</v>
+        <v>0.005477128104954143</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0446964534547236</v>
+        <v>0.04478173552412215</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1121,19 +1121,19 @@
         <v>5144</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1972</v>
+        <v>1983</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11845</v>
+        <v>11497</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01404776632854091</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005386846739485631</v>
+        <v>0.005415687863306625</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03235074441400575</v>
+        <v>0.03140020356681097</v>
       </c>
     </row>
     <row r="10">
@@ -1150,7 +1150,7 @@
         <v>160819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156433</v>
+        <v>157047</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>162555</v>
@@ -1159,7 +1159,7 @@
         <v>0.989322234239646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9623361490870023</v>
+        <v>0.966119088281895</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1171,19 +1171,19 @@
         <v>200189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194497</v>
+        <v>194480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203597</v>
+        <v>202482</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9832615699017505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9553035465452764</v>
+        <v>0.9552182644758778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>1</v>
+        <v>0.9945228718950458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>366</v>
@@ -1192,19 +1192,19 @@
         <v>361009</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>354308</v>
+        <v>354656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364181</v>
+        <v>364170</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9859522336714591</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9676492555859938</v>
+        <v>0.9685997964331887</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9946131532605144</v>
+        <v>0.9945843121366933</v>
       </c>
     </row>
     <row r="11">
@@ -1309,19 +1309,19 @@
         <v>3515</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9497</v>
+        <v>9448</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0240645309198052</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007537364509456565</v>
+        <v>0.007715406109150757</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06501615345338679</v>
+        <v>0.06468089464231216</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1330,19 +1330,19 @@
         <v>3515</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9578</v>
+        <v>9452</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01207985128934962</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0</v>
+        <v>0.003848560057321009</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03291584514256847</v>
+        <v>0.03248352674752107</v>
       </c>
     </row>
     <row r="13">
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6278</v>
+        <v>7360</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01329458198089185</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04332153324280898</v>
+        <v>0.05079121316118225</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7879</v>
+        <v>6622</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01495362826802713</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05393880798667908</v>
+        <v>0.04533617569926727</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1401,19 +1401,19 @@
         <v>4111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1050</v>
+        <v>1063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9543</v>
+        <v>9518</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01412738576574551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003608983563296786</v>
+        <v>0.003652717814967645</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03279536169714913</v>
+        <v>0.0327112724020437</v>
       </c>
     </row>
     <row r="14">
@@ -1430,7 +1430,7 @@
         <v>142989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>138638</v>
+        <v>137556</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>144916</v>
@@ -1439,7 +1439,7 @@
         <v>0.9867054180191082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9566784667571894</v>
+        <v>0.9492087868388172</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1451,19 +1451,19 @@
         <v>140368</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>133652</v>
+        <v>133804</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144900</v>
+        <v>143829</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9609818408121676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9150055481133913</v>
+        <v>0.9160437480954661</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9920085696378618</v>
+        <v>0.9846758703499308</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>277</v>
@@ -1472,19 +1472,19 @@
         <v>283358</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>275677</v>
+        <v>275832</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>287797</v>
+        <v>287615</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9737927629449049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9473941833901149</v>
+        <v>0.9479275076110045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9890460259105727</v>
+        <v>0.9884216284564368</v>
       </c>
     </row>
     <row r="15">
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5533</v>
+        <v>5725</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02845651636501067</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1410325520058793</v>
+        <v>0.1459234752000672</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5549</v>
+        <v>5628</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01260478709628461</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06264320944161839</v>
+        <v>0.06353840263089705</v>
       </c>
     </row>
     <row r="18">
@@ -1699,7 +1699,7 @@
         <v>38119</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33702</v>
+        <v>33510</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>39235</v>
@@ -1708,7 +1708,7 @@
         <v>0.9715434836349893</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8589674479941206</v>
+        <v>0.8540765247999325</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>87460</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83027</v>
+        <v>82948</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>88576</v>
@@ -1729,7 +1729,7 @@
         <v>0.9873952129037153</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9373567905583818</v>
+        <v>0.9364615973691029</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3393</v>
+        <v>4692</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001725807374128376</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.006984842667567455</v>
+        <v>0.00965886433419778</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1845,19 +1845,19 @@
         <v>6754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2400</v>
+        <v>2341</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13998</v>
+        <v>14119</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01021621826319173</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003629700850146063</v>
+        <v>0.003541434923900637</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02117334309158696</v>
+        <v>0.02135587866032316</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1866,19 +1866,19 @@
         <v>7592</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3236</v>
+        <v>3280</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14985</v>
+        <v>15169</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006619897755014309</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002821155485067338</v>
+        <v>0.002859426646167844</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01306558289396912</v>
+        <v>0.01322615696944184</v>
       </c>
     </row>
     <row r="21">
@@ -1895,19 +1895,19 @@
         <v>6236</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2630</v>
+        <v>2690</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11985</v>
+        <v>12558</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01283547983731228</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005413268214213857</v>
+        <v>0.005538054735553081</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02467062763363517</v>
+        <v>0.02585075845949574</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -1916,19 +1916,19 @@
         <v>17685</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10364</v>
+        <v>10641</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28598</v>
+        <v>28372</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02674978318568953</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01567730791426257</v>
+        <v>0.01609575458675296</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0432576835468381</v>
+        <v>0.04291537544771942</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>23</v>
@@ -1937,19 +1937,19 @@
         <v>23920</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15582</v>
+        <v>14636</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34974</v>
+        <v>34891</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02085604080471376</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01358640485555526</v>
+        <v>0.01276142325072443</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03049374803314455</v>
+        <v>0.03042183792766922</v>
       </c>
     </row>
     <row r="22">
@@ -1966,19 +1966,19 @@
         <v>478730</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>472907</v>
+        <v>472140</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>482493</v>
+        <v>482319</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9854387127885593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.973451758102205</v>
+        <v>0.9718726669896572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.993184888731709</v>
+        <v>0.9928268117662375</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>623</v>
@@ -1987,19 +1987,19 @@
         <v>636673</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>624505</v>
+        <v>624858</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>645588</v>
+        <v>645410</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9630339985511187</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9446285862817302</v>
+        <v>0.9451618251031481</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9765185157540329</v>
+        <v>0.9762484685028661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1121</v>
@@ -2008,19 +2008,19 @@
         <v>1115403</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1102868</v>
+        <v>1101966</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1125098</v>
+        <v>1124826</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9725240614402719</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9615942249541138</v>
+        <v>0.9608078830429722</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9809765275447447</v>
+        <v>0.9807399830548597</v>
       </c>
     </row>
     <row r="23">
@@ -2352,19 +2352,19 @@
         <v>3087</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8697</v>
+        <v>7885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02244718762063467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00698139489780056</v>
+        <v>0.006926268396326637</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06323647525748891</v>
+        <v>0.05733280336121764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2373,19 +2373,19 @@
         <v>5557</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1886</v>
+        <v>2082</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11971</v>
+        <v>11902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02577272678333349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008744280409522067</v>
+        <v>0.009653717568449502</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0555132321469204</v>
+        <v>0.05519418930309338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2394,19 +2394,19 @@
         <v>8645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4179</v>
+        <v>4091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16347</v>
+        <v>16665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02447766891498852</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01183316667689003</v>
+        <v>0.0115849158031819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0462879615035997</v>
+        <v>0.04718610416466616</v>
       </c>
     </row>
     <row r="5">
@@ -2423,19 +2423,19 @@
         <v>6760</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2275</v>
+        <v>2285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13536</v>
+        <v>13954</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04915270640885096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01654450278073333</v>
+        <v>0.01661622382867267</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09842017474852839</v>
+        <v>0.1014573397735858</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2444,19 +2444,19 @@
         <v>8521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4197</v>
+        <v>4020</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16903</v>
+        <v>15987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03951693704331454</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01946560255013331</v>
+        <v>0.01864305048998643</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07838726062860511</v>
+        <v>0.07413824780802827</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -2465,19 +2465,19 @@
         <v>15281</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8687</v>
+        <v>8846</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23513</v>
+        <v>23973</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0432693748658384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02459835003556455</v>
+        <v>0.02504777115508382</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0665761622879472</v>
+        <v>0.06788007413922086</v>
       </c>
     </row>
     <row r="6">
@@ -2494,19 +2494,19 @@
         <v>127686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>119686</v>
+        <v>119964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>133042</v>
+        <v>133053</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9284001059705144</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8702322436952644</v>
+        <v>0.872254309046592</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9673483331691156</v>
+        <v>0.9674258831249409</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>188</v>
@@ -2515,19 +2515,19 @@
         <v>201555</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>192142</v>
+        <v>192213</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>208063</v>
+        <v>207828</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.934710336173352</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.891054731434197</v>
+        <v>0.8913869949657978</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9648903157820439</v>
+        <v>0.9638009816114358</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>302</v>
@@ -2536,19 +2536,19 @@
         <v>329241</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>318868</v>
+        <v>319428</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>337654</v>
+        <v>338049</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.932252956219173</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9028807778526274</v>
+        <v>0.9044684054041505</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.956073801247873</v>
+        <v>0.9571926110097437</v>
       </c>
     </row>
     <row r="7">
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4099</v>
+        <v>5261</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005784943124470701</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02376927646911343</v>
+        <v>0.03050409883093362</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -2661,19 +2661,19 @@
         <v>5434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2153</v>
+        <v>2144</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12041</v>
+        <v>10938</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02199566318698659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008712510937225262</v>
+        <v>0.008679055834444236</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04873604554165854</v>
+        <v>0.04427092160022371</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -2682,19 +2682,19 @@
         <v>6432</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2173</v>
+        <v>2213</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13962</v>
+        <v>13119</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01533150315002157</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005179371817234183</v>
+        <v>0.005273936383328734</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03327949845566867</v>
+        <v>0.03126979315778035</v>
       </c>
     </row>
     <row r="9">
@@ -2711,19 +2711,19 @@
         <v>6509</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2142</v>
+        <v>2041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16663</v>
+        <v>15181</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03774019336987789</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01242092132294666</v>
+        <v>0.01183121433924351</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09661196973221162</v>
+        <v>0.08802361052582683</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -2732,19 +2732,19 @@
         <v>8449</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4122</v>
+        <v>3261</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15739</v>
+        <v>15955</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03419713537460101</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01668488907794264</v>
+        <v>0.01319964463454195</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06370412726250764</v>
+        <v>0.06457698195592827</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -2753,19 +2753,19 @@
         <v>14958</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7588</v>
+        <v>7527</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25171</v>
+        <v>25315</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0356536718769721</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01808629931827238</v>
+        <v>0.01794013226208835</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05999785505695883</v>
+        <v>0.0603399327623047</v>
       </c>
     </row>
     <row r="10">
@@ -2782,19 +2782,19 @@
         <v>164963</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154019</v>
+        <v>156160</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169356</v>
+        <v>170246</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9564748635056514</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8930171448294705</v>
+        <v>0.9054343482831899</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9819446368105392</v>
+        <v>0.9871033757380274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -2803,19 +2803,19 @@
         <v>233184</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>224992</v>
+        <v>224962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239545</v>
+        <v>239612</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9438072014384123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9106512606379656</v>
+        <v>0.9105312124900075</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9695531600985412</v>
+        <v>0.9698253007662635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>375</v>
@@ -2824,19 +2824,19 @@
         <v>398146</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>386370</v>
+        <v>387398</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>406667</v>
+        <v>407251</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9490148249730064</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9209451444795103</v>
+        <v>0.923396924067991</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.969326732329947</v>
+        <v>0.9707167994058767</v>
       </c>
     </row>
     <row r="11">
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6419</v>
+        <v>6601</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01235949510090958</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03861618136862085</v>
+        <v>0.03971072396411741</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -2949,19 +2949,19 @@
         <v>6370</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2153</v>
+        <v>2167</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14590</v>
+        <v>15919</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03316669337967307</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01121170202510028</v>
+        <v>0.01128451135763905</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07596338804725833</v>
+        <v>0.08288166928569662</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -2970,19 +2970,19 @@
         <v>8425</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3268</v>
+        <v>3250</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16156</v>
+        <v>15932</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02351325508634689</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009120674993280609</v>
+        <v>0.009071246426506948</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04509083610094735</v>
+        <v>0.04446354318633377</v>
       </c>
     </row>
     <row r="13">
@@ -2999,19 +2999,19 @@
         <v>3114</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8622</v>
+        <v>8334</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01873150734353657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005933764579827224</v>
+        <v>0.005923676152904624</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05186566954873763</v>
+        <v>0.05013356034482305</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7717</v>
+        <v>10051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01165756537876057</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04017594974695194</v>
+        <v>0.05232983272690699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -3041,19 +3041,19 @@
         <v>5353</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2067</v>
+        <v>2103</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10914</v>
+        <v>12809</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01493949989645258</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005768349170527202</v>
+        <v>0.005869924882766502</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03046023533932867</v>
+        <v>0.0357486788551102</v>
       </c>
     </row>
     <row r="14">
@@ -3070,7 +3070,7 @@
         <v>161067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154674</v>
+        <v>154845</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>164194</v>
@@ -3079,10 +3079,10 @@
         <v>0.9689089975555538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9304539116003165</v>
+        <v>0.9314852135109231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9877249729067084</v>
+        <v>0.9877227617092869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>172</v>
@@ -3091,19 +3091,19 @@
         <v>183462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174281</v>
+        <v>172123</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>188750</v>
+        <v>187900</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9551757412415663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9073800312672083</v>
+        <v>0.8961432103316804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9827106189988691</v>
+        <v>0.9782818433763887</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>318</v>
@@ -3112,19 +3112,19 @@
         <v>344528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>335181</v>
+        <v>335239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>350975</v>
+        <v>350749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9615472450172006</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9354615267751982</v>
+        <v>0.9356221429158722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9795406683030005</v>
+        <v>0.9789078881345643</v>
       </c>
     </row>
     <row r="15">
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6727</v>
+        <v>7192</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02464117603929528</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07909520692390291</v>
+        <v>0.0845620803333013</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -3258,19 +3258,19 @@
         <v>3128</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8831</v>
+        <v>8593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01917275953460742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006190765991214713</v>
+        <v>0.006144328279159633</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05413118248536486</v>
+        <v>0.05266910647538069</v>
       </c>
     </row>
     <row r="17">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5217</v>
+        <v>5024</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01284226593748102</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06679802018157407</v>
+        <v>0.06432776929968971</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4742</v>
+        <v>5926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01351287803395272</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05575948236358094</v>
+        <v>0.06967400922625565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7683</v>
+        <v>6801</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01319186279820533</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04709268899727982</v>
+        <v>0.04168708166228584</v>
       </c>
     </row>
     <row r="18">
@@ -3358,7 +3358,7 @@
         <v>76062</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71422</v>
+        <v>71631</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>78097</v>
@@ -3367,7 +3367,7 @@
         <v>0.9739402720661137</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9145245834633022</v>
+        <v>0.91720535899744</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -3379,19 +3379,19 @@
         <v>81805</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>76514</v>
+        <v>76321</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84063</v>
+        <v>84064</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.961845945926752</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8996368329964113</v>
+        <v>0.8973706101142563</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9883990010632588</v>
+        <v>0.9884125402796198</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -3400,19 +3400,19 @@
         <v>157866</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>151065</v>
+        <v>151506</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>161072</v>
+        <v>161145</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9676353776671872</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9259487316261573</v>
+        <v>0.9286558837088994</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9872885040197177</v>
+        <v>0.9877339187143385</v>
       </c>
     </row>
     <row r="19">
@@ -3504,19 +3504,19 @@
         <v>7172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3056</v>
+        <v>3086</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13487</v>
+        <v>14177</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01293763822642285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005513556159842303</v>
+        <v>0.005567555378258458</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0243301093692678</v>
+        <v>0.02557438764528411</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -3525,19 +3525,19 @@
         <v>19458</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11862</v>
+        <v>10834</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31817</v>
+        <v>29416</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02630088251969201</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01603424557478088</v>
+        <v>0.01464450519004361</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04300663338887759</v>
+        <v>0.03976079496810728</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -3546,19 +3546,19 @@
         <v>26630</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17321</v>
+        <v>17903</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39479</v>
+        <v>40627</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02057691553716045</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01338393251802482</v>
+        <v>0.01383368402362117</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03050557661433703</v>
+        <v>0.03139299183342133</v>
       </c>
     </row>
     <row r="21">
@@ -3575,19 +3575,19 @@
         <v>17386</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9584</v>
+        <v>9694</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29803</v>
+        <v>28180</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03136361941766453</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01728899404427061</v>
+        <v>0.0174873583690628</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05376405201193103</v>
+        <v>0.05083593943194691</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -3596,19 +3596,19 @@
         <v>20359</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12549</v>
+        <v>12884</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30350</v>
+        <v>31239</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02751814325419001</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01696203294639766</v>
+        <v>0.01741551515132927</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04102335031877152</v>
+        <v>0.04222503593711905</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>33</v>
@@ -3617,19 +3617,19 @@
         <v>37744</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25993</v>
+        <v>25152</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51779</v>
+        <v>51559</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02916530154216107</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02008457404889469</v>
+        <v>0.01943525007596454</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04000976452665236</v>
+        <v>0.03983981008483059</v>
       </c>
     </row>
     <row r="22">
@@ -3646,19 +3646,19 @@
         <v>529776</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>516674</v>
+        <v>518046</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>538636</v>
+        <v>539504</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9556987423559126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9320627032596867</v>
+        <v>0.9345367998593322</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9716810003020923</v>
+        <v>0.9732473236271972</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>655</v>
@@ -3667,19 +3667,19 @@
         <v>700005</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>686675</v>
+        <v>686613</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>712270</v>
+        <v>712280</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.946180974226118</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9281637901940555</v>
+        <v>0.9280793324788815</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9627598484351375</v>
+        <v>0.9627739933687153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1133</v>
@@ -3688,19 +3688,19 @@
         <v>1229781</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1210633</v>
+        <v>1210881</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1243638</v>
+        <v>1245431</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9502577829206785</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9354617502577375</v>
+        <v>0.9356540259545749</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9609654390726922</v>
+        <v>0.9623503657864286</v>
       </c>
     </row>
     <row r="23">
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6042</v>
+        <v>5343</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01043864007550709</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03629973293931322</v>
+        <v>0.03209907339436163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4053,19 +4053,19 @@
         <v>3878</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11376</v>
+        <v>11371</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01489192411588042</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004801943915796718</v>
+        <v>0.004777910829922479</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04369100155281246</v>
+        <v>0.04367016830573938</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4074,19 +4074,19 @@
         <v>5615</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1749</v>
+        <v>1766</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12274</v>
+        <v>12373</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0131552493409795</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004096792076212823</v>
+        <v>0.004137071976309721</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02875641386961014</v>
+        <v>0.02898818448128891</v>
       </c>
     </row>
     <row r="5">
@@ -4103,19 +4103,19 @@
         <v>4451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1631</v>
+        <v>1661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10145</v>
+        <v>10236</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02673864832811476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009798028078440071</v>
+        <v>0.00997626862492324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06094579553131239</v>
+        <v>0.06149235735336862</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4124,19 +4124,19 @@
         <v>4869</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1274</v>
+        <v>1284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11799</v>
+        <v>11310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01870069892234159</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004892670610019106</v>
+        <v>0.004929987895707083</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04531390865945785</v>
+        <v>0.04343580953484616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -4145,19 +4145,19 @@
         <v>9320</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4589</v>
+        <v>4501</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18100</v>
+        <v>17291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02183530786450237</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01075194547003197</v>
+        <v>0.01054526533018018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04240554161735242</v>
+        <v>0.04051102863612529</v>
       </c>
     </row>
     <row r="6">
@@ -4174,19 +4174,19 @@
         <v>160266</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>154100</v>
+        <v>154517</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163809</v>
+        <v>163831</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9628227115963781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9257827118352384</v>
+        <v>0.9282836536118</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9841117220802161</v>
+        <v>0.9842421209656206</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>214</v>
@@ -4195,19 +4195,19 @@
         <v>251631</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>243450</v>
+        <v>243834</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>256576</v>
+        <v>256708</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.966407376961778</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9349851398019475</v>
+        <v>0.9364627714791806</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9853993662492937</v>
+        <v>0.9859058119353135</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>383</v>
@@ -4216,19 +4216,19 @@
         <v>411897</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>402759</v>
+        <v>402195</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>418928</v>
+        <v>418550</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9650094427945182</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9436018515319556</v>
+        <v>0.942279717384668</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9814832100227491</v>
+        <v>0.9805963292179891</v>
       </c>
     </row>
     <row r="7">
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4559</v>
+        <v>4964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005738986451160569</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02685569184994954</v>
+        <v>0.02924206813116018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4880</v>
+        <v>4906</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002494492102487863</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01249372533344284</v>
+        <v>0.01256223689198031</v>
       </c>
     </row>
     <row r="9">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5374</v>
+        <v>6429</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009759607518870977</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03165430153578571</v>
+        <v>0.03787112737114151</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -4404,19 +4404,19 @@
         <v>4385</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1053</v>
+        <v>1219</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11552</v>
+        <v>11559</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01986099061952229</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004768572684735055</v>
+        <v>0.005521219885839929</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05231756706266325</v>
+        <v>0.05235090610052583</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -4425,19 +4425,19 @@
         <v>6042</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2075</v>
+        <v>2370</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12051</v>
+        <v>12614</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01547035116023529</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0053139693956521</v>
+        <v>0.006068567414191793</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03085546866229508</v>
+        <v>0.03229668796884743</v>
       </c>
     </row>
     <row r="10">
@@ -4454,19 +4454,19 @@
         <v>167132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162325</v>
+        <v>162653</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169000</v>
+        <v>169007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9845014060299685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9561878808016115</v>
+        <v>0.958119593777919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9955045655930492</v>
+        <v>0.9955463587708349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -4475,19 +4475,19 @@
         <v>216420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>209253</v>
+        <v>209246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219752</v>
+        <v>219586</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9801390093804777</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9476824329373378</v>
+        <v>0.9476490938994736</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9952314273152649</v>
+        <v>0.9944787801141562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>364</v>
@@ -4496,19 +4496,19 @@
         <v>383552</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>377435</v>
+        <v>377103</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>387717</v>
+        <v>387651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9820351567372768</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9663757280392178</v>
+        <v>0.96552389388174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9926996219817231</v>
+        <v>0.9925321051851074</v>
       </c>
     </row>
     <row r="11">
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4726</v>
+        <v>3878</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006109568047529966</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03034177677304105</v>
+        <v>0.02489567156970279</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -4621,19 +4621,19 @@
         <v>5564</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13249</v>
+        <v>13138</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03022067951927791</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006677513337811949</v>
+        <v>0.006691078076134562</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07196269529772378</v>
+        <v>0.07136312167000214</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -4642,19 +4642,19 @@
         <v>6515</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2192</v>
+        <v>2107</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14653</v>
+        <v>14878</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01917016374919601</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006450677230660497</v>
+        <v>0.006199802707786041</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04311362492330376</v>
+        <v>0.0437748258104759</v>
       </c>
     </row>
     <row r="13">
@@ -4671,19 +4671,19 @@
         <v>2884</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7714</v>
+        <v>8444</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01851550965483051</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005188907328441763</v>
+        <v>0.005172761346023828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04952060994830287</v>
+        <v>0.05420556218065805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8434</v>
+        <v>7750</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01324402650243708</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04581157206281109</v>
+        <v>0.04209584643823325</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -4713,19 +4713,19 @@
         <v>5322</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2005</v>
+        <v>2041</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12138</v>
+        <v>12973</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01566003323756838</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005900309434340769</v>
+        <v>0.006004982536096614</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03571186256215849</v>
+        <v>0.03817018110378048</v>
       </c>
     </row>
     <row r="14">
@@ -4742,19 +4742,19 @@
         <v>151935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147005</v>
+        <v>146429</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154821</v>
+        <v>154807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9753749222976396</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9437239414402062</v>
+        <v>0.9400267437777642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9939031693755387</v>
+        <v>0.9938140885693291</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>147</v>
@@ -4763,19 +4763,19 @@
         <v>176104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168171</v>
+        <v>167455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>180832</v>
+        <v>180652</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9565352939782851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9134476418604208</v>
+        <v>0.9095573545622019</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9822161422561589</v>
+        <v>0.9812403585324384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>308</v>
@@ -4784,19 +4784,19 @@
         <v>328039</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>318840</v>
+        <v>318768</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>334306</v>
+        <v>333832</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9651698030132356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.938105414446846</v>
+        <v>0.9378919226628201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9836089693536605</v>
+        <v>0.9822142315286322</v>
       </c>
     </row>
     <row r="15">
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6342</v>
+        <v>6442</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0205142297087167</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07211627540437911</v>
+        <v>0.07324939254871317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5644</v>
+        <v>6420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009276616751635044</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02901907507290395</v>
+        <v>0.0330113509535532</v>
       </c>
     </row>
     <row r="17">
@@ -4951,19 +4951,19 @@
         <v>2407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5765</v>
+        <v>6360</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02736722502069883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008846060662548259</v>
+        <v>0.008812747651359473</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06555102459977824</v>
+        <v>0.07231562738459978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8517</v>
+        <v>8072</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02267899512335364</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07994818952743468</v>
+        <v>0.07577012135870582</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -4993,19 +4993,19 @@
         <v>4823</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10851</v>
+        <v>10594</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02479903144052274</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008206623018014234</v>
+        <v>0.00821691883402482</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0557963934951857</v>
+        <v>0.05447379161201071</v>
       </c>
     </row>
     <row r="18">
@@ -5022,19 +5022,19 @@
         <v>83734</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78567</v>
+        <v>79422</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>86320</v>
+        <v>86339</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9521185452705845</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.893364986651357</v>
+        <v>0.9030823719509697</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9815174492875317</v>
+        <v>0.9817358888705591</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>86</v>
@@ -5043,7 +5043,7 @@
         <v>104120</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98019</v>
+        <v>98464</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>106536</v>
@@ -5052,7 +5052,7 @@
         <v>0.9773210048766463</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9200518104725653</v>
+        <v>0.9242298786412941</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -5064,19 +5064,19 @@
         <v>187854</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>181936</v>
+        <v>181402</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>191646</v>
+        <v>191899</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9659243518078422</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9354937390064808</v>
+        <v>0.9327472504425899</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9854206214567216</v>
+        <v>0.9867240034118632</v>
       </c>
     </row>
     <row r="19">
@@ -5168,19 +5168,19 @@
         <v>5468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1916</v>
+        <v>1877</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11409</v>
+        <v>11692</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009428053251736497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003304180201164902</v>
+        <v>0.003236276817864114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01967219063872468</v>
+        <v>0.02016047749065002</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -5189,19 +5189,19 @@
         <v>9441</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3818</v>
+        <v>3794</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18271</v>
+        <v>18850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01223248491228979</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004946205029055899</v>
+        <v>0.004915078850695131</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02367287995972318</v>
+        <v>0.02442314671070744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -5210,19 +5210,19 @@
         <v>14909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8126</v>
+        <v>8405</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24601</v>
+        <v>25408</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01102932224539848</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006011742197418797</v>
+        <v>0.006217480189203701</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01819890504328133</v>
+        <v>0.01879621648845729</v>
       </c>
     </row>
     <row r="21">
@@ -5239,19 +5239,19 @@
         <v>11399</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6124</v>
+        <v>6406</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18547</v>
+        <v>19052</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.019654970586251</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01056005979298388</v>
+        <v>0.01104673225141797</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03198123116185682</v>
+        <v>0.03285260164821935</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -5260,19 +5260,19 @@
         <v>14109</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7751</v>
+        <v>7101</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23869</v>
+        <v>23472</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01828016811098656</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01004184741638985</v>
+        <v>0.009200477201268757</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03092534662838876</v>
+        <v>0.03041084463011869</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -5281,19 +5281,19 @@
         <v>25508</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16235</v>
+        <v>16485</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36599</v>
+        <v>37663</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01886998851412008</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01201043049228018</v>
+        <v>0.01219507009439001</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02707492902374906</v>
+        <v>0.02786253466830885</v>
       </c>
     </row>
     <row r="22">
@@ -5310,19 +5310,19 @@
         <v>563068</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>553942</v>
+        <v>553997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>569544</v>
+        <v>569556</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9709169761620124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9551805604387945</v>
+        <v>0.9552760634893838</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9820835846869218</v>
+        <v>0.9821051908586935</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>631</v>
@@ -5331,19 +5331,19 @@
         <v>748274</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>736161</v>
+        <v>736075</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>757237</v>
+        <v>757860</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9694873469767237</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9537933601260876</v>
+        <v>0.9536824881203176</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9811011345068542</v>
+        <v>0.9819076795962025</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1228</v>
@@ -5352,19 +5352,19 @@
         <v>1311341</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1297897</v>
+        <v>1296225</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1322933</v>
+        <v>1323152</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9701006892404814</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9601546137911812</v>
+        <v>0.9589179441680203</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9786759673031565</v>
+        <v>0.9788380891519188</v>
       </c>
     </row>
     <row r="23">
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2316</v>
+        <v>2425</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005053003119580664</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01619582746481705</v>
+        <v>0.01695889800422806</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2337</v>
+        <v>2484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003436418570955702</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01111237745540235</v>
+        <v>0.01181172843601686</v>
       </c>
     </row>
     <row r="5">
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5042</v>
+        <v>4631</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01891577403364646</v>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07494519566184764</v>
+        <v>0.06883986839964011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -5780,19 +5780,19 @@
         <v>10619</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6095</v>
+        <v>6142</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16774</v>
+        <v>17241</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07425543518118111</v>
+        <v>0.07425543518118112</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0426167502825861</v>
+        <v>0.04294838915751961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1172901933725522</v>
+        <v>0.1205576370432744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -5801,19 +5801,19 @@
         <v>11892</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6870</v>
+        <v>7112</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17513</v>
+        <v>18157</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05655086642867461</v>
+        <v>0.05655086642867462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03266825480200015</v>
+        <v>0.03382122485193857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08327998233709978</v>
+        <v>0.08634182148867146</v>
       </c>
     </row>
     <row r="6">
@@ -5830,16 +5830,16 @@
         <v>66004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62235</v>
+        <v>62646</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>67277</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9810842259663536</v>
+        <v>0.9810842259663538</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9250548043381522</v>
+        <v>0.9311601316003595</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -5851,19 +5851,19 @@
         <v>131671</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>125460</v>
+        <v>125262</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>136391</v>
+        <v>136289</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9206915616992384</v>
+        <v>0.9206915616992382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8772660752512405</v>
+        <v>0.875877998364</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9536931795796356</v>
+        <v>0.9529860452993</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>340</v>
@@ -5872,19 +5872,19 @@
         <v>197675</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>191777</v>
+        <v>191731</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>202532</v>
+        <v>202527</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9400127150003695</v>
+        <v>0.9400127150003698</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9119653206560291</v>
+        <v>0.9117449371871355</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9631082953133329</v>
+        <v>0.9630849792773578</v>
       </c>
     </row>
     <row r="7">
@@ -5976,19 +5976,19 @@
         <v>1771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>466</v>
+        <v>600</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4339</v>
+        <v>4521</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.008795359353980762</v>
+        <v>0.008795359353980764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002317193996838259</v>
+        <v>0.002978934971566243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02155342672963743</v>
+        <v>0.02245713339094422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -5997,19 +5997,19 @@
         <v>5940</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2855</v>
+        <v>3096</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10889</v>
+        <v>11150</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01964546024587688</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00944295710045002</v>
+        <v>0.01023967779560724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03601546702470515</v>
+        <v>0.03688005015964516</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -6018,19 +6018,19 @@
         <v>7710</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4483</v>
+        <v>4384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13657</v>
+        <v>13104</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01530869933286501</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008900312321491251</v>
+        <v>0.008704556385331411</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02711727118052219</v>
+        <v>0.02601811758409207</v>
       </c>
     </row>
     <row r="9">
@@ -6047,19 +6047,19 @@
         <v>3479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1321</v>
+        <v>1229</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7897</v>
+        <v>7369</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01728089812644907</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006562870479122829</v>
+        <v>0.006107170263650387</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03923019907334237</v>
+        <v>0.03660555414025729</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -6068,19 +6068,19 @@
         <v>9621</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5858</v>
+        <v>5562</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15321</v>
+        <v>14924</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0318233781156428</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01937654799957039</v>
+        <v>0.01839720113019718</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05067663542304414</v>
+        <v>0.04936183247950195</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -6089,19 +6089,19 @@
         <v>13100</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8155</v>
+        <v>7949</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19321</v>
+        <v>19244</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02601078158554995</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01619251782207844</v>
+        <v>0.01578403129686838</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03836179592419015</v>
+        <v>0.03820973797405864</v>
       </c>
     </row>
     <row r="10">
@@ -6118,19 +6118,19 @@
         <v>196055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>191584</v>
+        <v>191726</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198887</v>
+        <v>198794</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.97392374251957</v>
+        <v>0.9739237425195701</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.95171459438471</v>
+        <v>0.9524183589976529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9879936167715813</v>
+        <v>0.987533453453835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>541</v>
@@ -6139,19 +6139,19 @@
         <v>286776</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>279165</v>
+        <v>280902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>291811</v>
+        <v>291908</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9485311616384805</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9233562629237492</v>
+        <v>0.9291027588776144</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9651849206608496</v>
+        <v>0.9655063322288099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>827</v>
@@ -6160,19 +6160,19 @@
         <v>482831</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>475028</v>
+        <v>474691</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>488578</v>
+        <v>489167</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9586805190815851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9431882749956317</v>
+        <v>0.9425180142636052</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9700924738648505</v>
+        <v>0.9712610686320844</v>
       </c>
     </row>
     <row r="11">
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2527</v>
+        <v>2277</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002170933975275132</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01102188638952514</v>
+        <v>0.009927458846486418</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -6285,19 +6285,19 @@
         <v>4062</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1786</v>
+        <v>1533</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8475</v>
+        <v>8931</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01717670652335393</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007552628979455314</v>
+        <v>0.006482532408877443</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03583426022453234</v>
+        <v>0.03776232229888053</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -6306,19 +6306,19 @@
         <v>4560</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1915</v>
+        <v>1955</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9196</v>
+        <v>9971</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.009789697899908838</v>
+        <v>0.009789697899908835</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00411096034521335</v>
+        <v>0.004195971835083832</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0197404389374328</v>
+        <v>0.02140580404844633</v>
       </c>
     </row>
     <row r="13">
@@ -6335,19 +6335,19 @@
         <v>5399</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2353</v>
+        <v>2338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10067</v>
+        <v>10294</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02354390069106917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01026256558727172</v>
+        <v>0.01019438054351267</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04390262618046355</v>
+        <v>0.04489077235481624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -6356,19 +6356,19 @@
         <v>5138</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2221</v>
+        <v>2485</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9331</v>
+        <v>10243</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02172561707133932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009391200838050964</v>
+        <v>0.0105072417135501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03945175527426044</v>
+        <v>0.04330755268036256</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -6377,19 +6377,19 @@
         <v>10537</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6244</v>
+        <v>6311</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16654</v>
+        <v>16468</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0226207177224906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01340362633300788</v>
+        <v>0.01354802782648306</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03575218671326851</v>
+        <v>0.03535352383003671</v>
       </c>
     </row>
     <row r="14">
@@ -6406,19 +6406,19 @@
         <v>223417</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>218451</v>
+        <v>218382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226545</v>
+        <v>226759</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9742851653336557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9526278367918154</v>
+        <v>0.9523261630375175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9879234387273167</v>
+        <v>0.9888600100833138</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>433</v>
@@ -6427,19 +6427,19 @@
         <v>227308</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>222151</v>
+        <v>221290</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>231105</v>
+        <v>231317</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9610976764053069</v>
+        <v>0.9610976764053067</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9392928190690827</v>
+        <v>0.9356506989147276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9771521493592796</v>
+        <v>0.9780463006031821</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>753</v>
@@ -6448,19 +6448,19 @@
         <v>450725</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>443594</v>
+        <v>443845</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>456038</v>
+        <v>455792</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9675895843776006</v>
+        <v>0.9675895843776005</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9522808823821175</v>
+        <v>0.9528198375272223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.978994291173097</v>
+        <v>0.9784666755502887</v>
       </c>
     </row>
     <row r="15">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2586</v>
+        <v>2431</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001994580313887669</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01218746413771887</v>
+        <v>0.01145564875696387</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10304</v>
+        <v>8668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01141916556120325</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04959281759036294</v>
+        <v>0.04171862185203742</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -6594,19 +6594,19 @@
         <v>2796</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>426</v>
+        <v>610</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10088</v>
+        <v>10019</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.006657256926845034</v>
+        <v>0.006657256926845033</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001014008686530263</v>
+        <v>0.001452759697002958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02402021278850045</v>
+        <v>0.02385710647511657</v>
       </c>
     </row>
     <row r="17">
@@ -6623,19 +6623,19 @@
         <v>2535</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>504</v>
+        <v>873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6199</v>
+        <v>6828</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01194744232440551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00237544718277387</v>
+        <v>0.004112099426842613</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02921277128468925</v>
+        <v>0.0321804209408625</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -6644,19 +6644,19 @@
         <v>8191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4856</v>
+        <v>5019</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13096</v>
+        <v>12772</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03942510827956614</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02337165795929717</v>
+        <v>0.02415822136642264</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06303022539574744</v>
+        <v>0.06147322913059209</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -6665,19 +6665,19 @@
         <v>10727</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6899</v>
+        <v>6636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15989</v>
+        <v>16390</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02554161830835925</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01642666130987342</v>
+        <v>0.01580047786931168</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03807202235720158</v>
+        <v>0.03902698799835638</v>
       </c>
     </row>
     <row r="18">
@@ -6694,19 +6694,19 @@
         <v>209235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>205452</v>
+        <v>204846</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>211224</v>
+        <v>211205</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9860579773617069</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9682340550096541</v>
+        <v>0.9653775811796376</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9954327342294751</v>
+        <v>0.9953460663440887</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>374</v>
@@ -6715,19 +6715,19 @@
         <v>197207</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>190389</v>
+        <v>190873</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>201659</v>
+        <v>201347</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9491557261592306</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9163421928610008</v>
+        <v>0.9186686422473238</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9705844616650077</v>
+        <v>0.9690820767076364</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>670</v>
@@ -6736,19 +6736,19 @@
         <v>406442</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>398923</v>
+        <v>398824</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>411459</v>
+        <v>410999</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.967801124764796</v>
+        <v>0.9678011247647959</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9498971511900935</v>
+        <v>0.9496616323881106</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9797484258288921</v>
+        <v>0.9786539069363595</v>
       </c>
     </row>
     <row r="19">
@@ -6840,19 +6840,19 @@
         <v>2692</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1012</v>
+        <v>945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5720</v>
+        <v>5578</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003790520278341779</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001424950151161724</v>
+        <v>0.001330576770530062</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008055633170702381</v>
+        <v>0.007855270669663161</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -6861,19 +6861,19 @@
         <v>13097</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7938</v>
+        <v>7976</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21198</v>
+        <v>21661</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.01472209172156321</v>
+        <v>0.01472209172156322</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008923044716849952</v>
+        <v>0.00896604054496317</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02382785692272137</v>
+        <v>0.02434816860517143</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -6882,19 +6882,19 @@
         <v>15789</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10419</v>
+        <v>10331</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24505</v>
+        <v>23660</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.009869746385163148</v>
+        <v>0.00986974638516315</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006512812440315383</v>
+        <v>0.006457847967457155</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01531811791168191</v>
+        <v>0.01479005944988578</v>
       </c>
     </row>
     <row r="21">
@@ -6911,19 +6911,19 @@
         <v>12685</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8105</v>
+        <v>7399</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20097</v>
+        <v>18665</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01786457996026955</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01141402344909332</v>
+        <v>0.01042017743414414</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02830261122347212</v>
+        <v>0.02628527533678069</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>61</v>
@@ -6932,19 +6932,19 @@
         <v>33571</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26488</v>
+        <v>25679</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>43286</v>
+        <v>43158</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03773542283887869</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02977440183315008</v>
+        <v>0.02886495032811106</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04865581211142761</v>
+        <v>0.04851203179611079</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>80</v>
@@ -6953,19 +6953,19 @@
         <v>46256</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37197</v>
+        <v>37394</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58377</v>
+        <v>56955</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.02891508147504423</v>
+        <v>0.02891508147504424</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02325241119499822</v>
+        <v>0.02337519438963535</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03649203626503074</v>
+        <v>0.03560327343537413</v>
       </c>
     </row>
     <row r="22">
@@ -6982,19 +6982,19 @@
         <v>694711</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>686794</v>
+        <v>688124</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>699664</v>
+        <v>700226</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9783448997613886</v>
+        <v>0.9783448997613888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9671951459866269</v>
+        <v>0.9690681831099474</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9853208090634675</v>
+        <v>0.9861120794850435</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1596</v>
@@ -7003,19 +7003,19 @@
         <v>842961</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>830881</v>
+        <v>831636</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>851940</v>
+        <v>853148</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9475424854395581</v>
+        <v>0.947542485439558</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9339630014081932</v>
+        <v>0.9348118684404106</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9576350350577294</v>
+        <v>0.9589930802638933</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2590</v>
@@ -7024,19 +7024,19 @@
         <v>1537673</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1524673</v>
+        <v>1524760</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1548732</v>
+        <v>1548491</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9612151721397926</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9530883440378225</v>
+        <v>0.9531427232949065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9681283735704345</v>
+        <v>0.967977719286894</v>
       </c>
     </row>
     <row r="23">
